--- a/samples/2-Sheets-SA-عينة-شركات-مقاولات-preview.xlsx
+++ b/samples/2-Sheets-SA-عينة-شركات-مقاولات-preview.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="357">
   <si>
     <t>Name</t>
   </si>
@@ -59,91 +59,91 @@
     <t>Activities</t>
   </si>
   <si>
-    <t>شركة رواسي سما للمقاولات</t>
-  </si>
-  <si>
-    <t>موسسه نائف عوض البقمي للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة مدن للمقاولات</t>
-  </si>
-  <si>
-    <t>الشركة التضامنية للإعمار والتجارة</t>
-  </si>
-  <si>
-    <t>مجموعة الأعمال المتعددة للمشاريع</t>
-  </si>
-  <si>
-    <t>شركة رونق الاعمار للمقاولات</t>
-  </si>
-  <si>
-    <t>ام اتش اي ايه بي العربية السعودية المحدودة</t>
-  </si>
-  <si>
-    <t>شركة اتحاد المقاولون الماسية للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>شركة بيت الجليد للصيانة والتشغيل</t>
-  </si>
-  <si>
-    <t>شركة القصيبي للخدمات المحدودة</t>
-  </si>
-  <si>
-    <t>مؤسسة امجد عبدالواحد محمد ال السادة للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة برو فاست المحدودة</t>
-  </si>
-  <si>
-    <t>شركة الماء الاحمر لهندسة المشاريع</t>
-  </si>
-  <si>
-    <t>مؤسسة دروب الديكور للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة عبدالله احمد البريكي للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة اعتدال طاهر البوحسن للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>شركة المشروعات للخدمات البحرية</t>
-  </si>
-  <si>
-    <t>مؤسسة فاطمه عبيد الصلبي للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة الرسالة التطويرية للخدمات العقارية</t>
-  </si>
-  <si>
-    <t>شركة صالح عبدالرحمن اللحيدان للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة رسا الجزيرة للاتصالات</t>
-  </si>
-  <si>
-    <t>شركة تطوير المرافق المتقدمة للمقاولات عامة</t>
-  </si>
-  <si>
-    <t>مؤسسة دخيل الله دخيل عوده السفياني لادوات ومواد السلامة</t>
-  </si>
-  <si>
-    <t>الشركة العربية لخدمات الانترنت والاتصالات</t>
-  </si>
-  <si>
-    <t>ركائز العرب للتجارة</t>
-  </si>
-  <si>
-    <t>شركة ناجي جبر العتيبي وشركاه للتجارة والمقاولات المحدودة</t>
-  </si>
-  <si>
-    <t>شركة منارات الاعمار للمقاولات العامة شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة سواتر اعمال انشائية للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>مؤسسة وصل الافاق للصيانه</t>
+    <t>شركة رواسي سما...</t>
+  </si>
+  <si>
+    <t>موسسه نائف عوض...</t>
+  </si>
+  <si>
+    <t>شركة مدن للمقا...</t>
+  </si>
+  <si>
+    <t>الشركة التضامن...</t>
+  </si>
+  <si>
+    <t>مجموعة الأعمال...</t>
+  </si>
+  <si>
+    <t>شركة رونق الاع...</t>
+  </si>
+  <si>
+    <t>ام اتش اي ايه ...</t>
+  </si>
+  <si>
+    <t>شركة اتحاد الم...</t>
+  </si>
+  <si>
+    <t>شركة بيت الجلي...</t>
+  </si>
+  <si>
+    <t>شركة القصيبي ل...</t>
+  </si>
+  <si>
+    <t>مؤسسة امجد عبد...</t>
+  </si>
+  <si>
+    <t>شركة برو فاست ...</t>
+  </si>
+  <si>
+    <t>شركة الماء الا...</t>
+  </si>
+  <si>
+    <t>مؤسسة دروب الد...</t>
+  </si>
+  <si>
+    <t>مؤسسة عبدالله ...</t>
+  </si>
+  <si>
+    <t>مؤسسة اعتدال ط...</t>
+  </si>
+  <si>
+    <t>شركة المشروعات...</t>
+  </si>
+  <si>
+    <t>مؤسسة فاطمه عب...</t>
+  </si>
+  <si>
+    <t>شركة الرسالة ا...</t>
+  </si>
+  <si>
+    <t>شركة صالح عبدا...</t>
+  </si>
+  <si>
+    <t>شركة رسا الجزي...</t>
+  </si>
+  <si>
+    <t>شركة تطوير الم...</t>
+  </si>
+  <si>
+    <t>مؤسسة دخيل الل...</t>
+  </si>
+  <si>
+    <t>الشركة العربية...</t>
+  </si>
+  <si>
+    <t>ركائز العرب لل...</t>
+  </si>
+  <si>
+    <t>شركة ناجي جبر ...</t>
+  </si>
+  <si>
+    <t>شركة منارات ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة سواتر اع...</t>
+  </si>
+  <si>
+    <t>مؤسسة وصل الاف...</t>
   </si>
   <si>
     <t>305530557</t>
@@ -236,7 +236,7 @@
     <t>مقاول سعودي</t>
   </si>
   <si>
-    <t>مقاول غير سعودي</t>
+    <t>مقاول غير سعود...</t>
   </si>
   <si>
     <t>2023/02/05</t>
@@ -311,7 +311,7 @@
     <t>2023/12/25</t>
   </si>
   <si>
-    <t>منشأة متناهية الصغر</t>
+    <t>منشأة متناهية ...</t>
   </si>
   <si>
     <t>منشأة صغيرة</t>
@@ -377,91 +377,91 @@
     <t>+966138988088</t>
   </si>
   <si>
-    <t>ce3@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@shadengulf.com</t>
-  </si>
-  <si>
-    <t>contact@mudungroup.com</t>
-  </si>
-  <si>
-    <t>amobark@tdpco.com</t>
+    <t>ce3@hotmail.co...</t>
+  </si>
+  <si>
+    <t>info@shadengul...</t>
+  </si>
+  <si>
+    <t>contact@mudung...</t>
+  </si>
+  <si>
+    <t>amobark@tdpco....</t>
   </si>
   <si>
     <t>info@mbg.sa</t>
   </si>
   <si>
-    <t>a7med.alajami@gmail.com</t>
-  </si>
-  <si>
-    <t>ali.almabooq.ns@mhi.com</t>
-  </si>
-  <si>
-    <t>admin@udc-sa.com</t>
-  </si>
-  <si>
-    <t>alkhadhar.a@gmail.com</t>
-  </si>
-  <si>
-    <t>khalid.alabdulaziz@algosaibi.com.sa</t>
-  </si>
-  <si>
-    <t>amjad007.com@gmail.com</t>
-  </si>
-  <si>
-    <t>info@alaaalafaq.com</t>
-  </si>
-  <si>
-    <t>awad@redwater.sa</t>
-  </si>
-  <si>
-    <t>wwttww101@gmail.com</t>
-  </si>
-  <si>
-    <t>abduallah@albriki.com</t>
-  </si>
-  <si>
-    <t>abdmab2020@hotmail.com</t>
-  </si>
-  <si>
-    <t>ali@pc-marine.net</t>
-  </si>
-  <si>
-    <t>saoooood1406@hotmail.com</t>
-  </si>
-  <si>
-    <t>almubham@yahoo.com</t>
-  </si>
-  <si>
-    <t>saleh_est30@yahoo.com</t>
-  </si>
-  <si>
-    <t>omar@rasacommunication.com</t>
-  </si>
-  <si>
-    <t>a.f.d.co@outlook.com</t>
-  </si>
-  <si>
-    <t>bm99bm@hotmail.com</t>
-  </si>
-  <si>
-    <t>maleid@stcs.com.sa</t>
-  </si>
-  <si>
-    <t>mns485@gmail.com</t>
-  </si>
-  <si>
-    <t>naji-056@hotmail.com</t>
-  </si>
-  <si>
-    <t>g.alndawi@gmail.com</t>
-  </si>
-  <si>
-    <t>y3amen@gmail.com</t>
-  </si>
-  <si>
-    <t>wasalalafaq@gmail.con</t>
+    <t>a7med.alajami@...</t>
+  </si>
+  <si>
+    <t>ali.almabooq.n...</t>
+  </si>
+  <si>
+    <t>admin@udc-sa.c...</t>
+  </si>
+  <si>
+    <t>alkhadhar.a@gm...</t>
+  </si>
+  <si>
+    <t>khalid.alabdul...</t>
+  </si>
+  <si>
+    <t>amjad007.com@g...</t>
+  </si>
+  <si>
+    <t>info@alaaalafa...</t>
+  </si>
+  <si>
+    <t>awad@redwater....</t>
+  </si>
+  <si>
+    <t>wwttww101@gmai...</t>
+  </si>
+  <si>
+    <t>abduallah@albr...</t>
+  </si>
+  <si>
+    <t>abdmab2020@hot...</t>
+  </si>
+  <si>
+    <t>ali@pc-marine....</t>
+  </si>
+  <si>
+    <t>saoooood1406@h...</t>
+  </si>
+  <si>
+    <t>almubham@yahoo...</t>
+  </si>
+  <si>
+    <t>saleh_est30@ya...</t>
+  </si>
+  <si>
+    <t>omar@rasacommu...</t>
+  </si>
+  <si>
+    <t>a.f.d.co@outlo...</t>
+  </si>
+  <si>
+    <t>bm99bm@hotmail...</t>
+  </si>
+  <si>
+    <t>maleid@stcs.co...</t>
+  </si>
+  <si>
+    <t>mns485@gmail.c...</t>
+  </si>
+  <si>
+    <t>naji-056@hotma...</t>
+  </si>
+  <si>
+    <t>g.alndawi@gmai...</t>
+  </si>
+  <si>
+    <t>y3amen@gmail.c...</t>
+  </si>
+  <si>
+    <t>wasalalafaq@gm...</t>
   </si>
   <si>
     <t>حفر الباطن</t>
@@ -512,118 +512,95 @@
     <t>القصيم</t>
   </si>
   <si>
-    <t>عنوان  الوليد بن عبدالملك, 3090 حي المصيف,8087, 39921 حفر الباطن المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>عنوان  3423 سيلمان ابن عبدالمالك ابن مروان حي طويق الرياض</t>
-  </si>
-  <si>
-    <t>عنوان  الدور الأول ٧٧٥٥ أحمد العطاس جدة ٢٣٤٢٥ - ٢٧٥٠</t>
-  </si>
-  <si>
-    <t>عنوان  الرياض شارع التخصصي عمارة المنجم بجوار البنك العربي</t>
-  </si>
-  <si>
-    <t>عنوان  4556 طريق أنس بن مالك | حي النرجس الوحدة رقم 2 | الرياض 13327 - 6828</t>
-  </si>
-  <si>
-    <t>عنوان  منطقة جازان محافظة ابوعريش حي الصفا مقابل الجمعية الخيرية لتحفيظ القران الكريم</t>
-  </si>
-  <si>
-    <t>عنوان  7827 عرفان الجميل - الفيصلية السريع بلازا - الدور الخامس - مكتب 20</t>
-  </si>
-  <si>
-    <t>عنوان  طريق الامام سعود بن عبدالعزيز</t>
-  </si>
-  <si>
-    <t>عنوان  الدمام / شارع الخبر ص.ب: 4131 الرمز البريدي: 31491</t>
-  </si>
-  <si>
-    <t>عنوان  مبنى رقم 3147 شارع عبدال رحمن الغافقي حي الروضة مدينة الرياض وحدة رقم 2</t>
-  </si>
-  <si>
-    <t>عنوان  الغيثي بلازا طريق المدينة النازل خلف وزارة النقل تلفون ـ 6510721-012 فاكس ـ 6510749-012 ص.ب 10611 جدة 21443</t>
-  </si>
-  <si>
-    <t>الرخص الانشائية , مراكز الخدمة , تسوير الأراضي الفضاء , تسوير مواقع الأعمال الأنشائية , المطاعم و المطابخ , المستودعات والورش والمخازن , البقالات و التموينات و الأسواق المركزية , المباني المهنية</t>
-  </si>
-  <si>
-    <t>تسوير مواقع الأعمال الأنشائية , تسوير الأراضي الفضاء</t>
-  </si>
-  <si>
-    <t>مراكز الخدمة , تسوير مواقع الأعمال الأنشائية , تسوير الأراضي الفضاء , المستودعات والورش والمخازن , المباني المهنية , البقالات و التموينات و الأسواق المركزية , الرخص الانشائية , المطاعم و المطابخ</t>
-  </si>
-  <si>
-    <t>مقاولات عامه - التشييد - ادارة مشاريع - تأجير معدات</t>
-  </si>
-  <si>
-    <t>نحن نعمل لقطاع الاتصالات كشركة مصنعة ومزودة للخدمات الفنية للشركة السعودية للكهرباء وشركات أخر</t>
-  </si>
-  <si>
-    <t>الدور الأول  ٧٧٥٥ أحمد العطاس  جدة ٢٣٤٢٥ - ٢٧٥٠</t>
-  </si>
-  <si>
-    <t>الشركة التضامنية للاعمار والتجارة شركة سعودية تأسست عام 1396 هــ الموافق 1976 م وأصبحت واحدة من كبرى الشركات الرائدة فى تنفيذ المشاريع الهامة وانجاز العقود الضخمة. ساهمت الشركة فى خطط التنمية الاقتصادية والعمرانية التى شهدتها المملكة ذلك من خلال  تنفيذها للعديد من المشاريع فى مجال الاعمال الكهربائية و الهاتفية والتى يتطلب انجازها بنجاح توافر مالدى الشركة من موارد فنية ومهنية وامكانيات مادية وخدمات مساندة  متكاملة اكتسبتها من خلال انجازها للعديد من المشاريع التى طرحتها حكومتنا الرشيدة عبر خططها الطموحة . فالشركة بما لديها من كوادر متميزة من المهندسيين والفنيين والاداريين لها دور بارز فى المجالات التالية:    تجارة المواد الكهربائية المتخصصة بمجالات الضغط العالى والمنخفض.  تجارة مواد البناء المتخصصة بمجالات تبطين البرك وتقوية التربة .  هندسة وتنفيذ المشاريع الكهربائية فى قطاعات التوليد ,النقل ,التحويل و التوزيع .  اعمال الاختبارات والفحص الكهربائية بمجالات الضغط العالى.</t>
-  </si>
-  <si>
-    <t>تأسست مجموعة الآعمال المتعددة في عام 2009م بهدف ﺗﻘﺪﻳﻢ ﺧﺪﻣﺎت ﻣﻘﺎوﻻت المباني ، ﺣﻴﺚ ﺗﺮﺟﻤﺖ المجموعة ﻧﺠﺎﺣﺎتها خلال العقد الماضي من ﺧﻼل ﺗﺼنيفها ﻟﺪى وكالة تصنيف المقاولين التابعة ﻟوزارة الشؤون البلدية والقروية في ﻣﺠﺎل المباني عام 2016م وحصولها على العضوية اﻷﺳﺎﺳﻴﺔ في البيئة اﻟﺴﻌﻮدﻳﺔ ﻟﻠﻤﻘﺎولين وأخيرا تأهيلها ﻛﻤﻄﻮر ﻋﻘﺎري في ﺑﺮﻧﺎﻣﺞ اﻟﺒﻴﻊ على الخارطة (وافي ) التابع لوزارة الاسكان</t>
-  </si>
-  <si>
-    <t>مؤسسة مساوي معبر معشي للمقاولات العامة مؤسسة وطنية تعمل في مجال المقاولات العامة من اصلاح وهدم وترميم وصيانة المباني العامة و التجارية والسكنية والحكومية وانشاء الحدائق والمتنزهات وصيانتها</t>
-  </si>
-  <si>
-    <t>7827 عرفان الجميل - الفيصلية  السريع بلازا - الدور الخامس - مكتب 20</t>
-  </si>
-  <si>
-    <t>تعتبر شركة آلاء الآفاق للمقاولات إحدى الشركات الرائدة في مجالات المقاولات المختلفة ، حيث يشمل نشاطها مجالات الإنشاءات والصيانة والتشغيل والأعمال الكهربائية والميكانيكية . وقد نفذت الشركة العديد من العقود الحكومية وغير الحكومية وعقود التشغيل والصيانة وذلك بمواصفات فنية عالية وبأسلوب جديد ومبتكر يلبي كافة الاحتياجات.</t>
-  </si>
-  <si>
-    <t>تصميم وتوريد وتركيب أنظمة الإنذار المبكر و مكافحةالحريق إعتماد مخططات السلامة و تسليم المشاريع وإصدارتراخيص الدفاع المدني تركيب وتوريد كافة انظمة السلامة ‏جوال-0507505464-0505895051 إيميل safety@redwater-se.com</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  أنشطة التشييد المتخصصة  الهدم  هدم وإزالة المباني وغيرها  أنشطة أخرى من الهدم  تحضير الموقع  اعداد وتجهيز المواقع من الحفر والتسوية  صب القواعد والاساسات  سحب المياه الجوفية وتجفيف المواقع  التفجير والنسف  أنشطة أخرى لتحضير الموقع  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات التلفزيون والستلايت  تركيب وتمديد شبكات الكمبيوتر والاتصالات  أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات  تركيب انظمة الاضاءة  تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين  التركيبات الكهربائية الأخرى  أعمال السباكة والتدفئة وتكييف الهواء  تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها  تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها  تركيب الادوات الصحية وصيانتها واصلاحها  تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها  تمديدات انابيب الغاز وصيانتها واصلاحها  تمديدات انابيب البخار وصيانتها واصلاحها  تمديدات انابيب الحريق وصيانتها واصلاحها  تمديدات انابيب الري وصيانتها واصلاحها  تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها  تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح  تركيبات إنشائية أخرى  تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية  تركيب وإصلاح وصيانة الابواب الاوتوماتيكية  تركيب وإصلاح وصيانة مانعه الصواعق  تركيب وإصلاح وصيانة انظمة التنظيف المركزية  تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات  تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا  تركيب وصيانة المصاعد  تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية  تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية  تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية  تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها  تركيب وصيانة أجهزة ومعدات الإطفاء  تركيب وصيانة أنظمة الرفوف والتخزين  اكمال المباني وتشطيبها  تشطيب المباني  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق  تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب  تركيب السيراميك والكاشي  تركيب الرخام  تركيب الحجر  تركيب القرميد  أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد  تغطية الارضيات خشب الباركيه  تغطية الارضيات</t>
-  </si>
-  <si>
-    <t>الهندسة المدنية  تشييد المشاريع الخاصة بالمنافع  إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار  أنشطة التشييد المتخصصة  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات الكمبيوتر والاتصالات  أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات  تركيب انظمة انذار الحريق  أنشطة أخرى من تركيب انظمة الاضا</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  أنشطة التشييد المتخصصة  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  اكمال المباني وتشطيبها  أعمال وتركيب الديكورات  تركيب الزجاج والمرايا للمباني  أنشطة تقديم الخدمات للمباني وتجميل المواقع  أنشطة متكاملة لدعم المرافق  أنشطة خدمات صيانة المباني</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  الهندسة المدنية  إنشاء الطرق وخطوط السكك الحديدية  إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق  إنشاء واصلاح الجسور والانفاق  إنشاء واصلاح خطوط السكك الحديدية  أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر  إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق  إصلاح وصيانة الجسور والأنفاق  إصلاح وصيانة خطوط السكك الحديدية  تشييد المشاريع الخاصة بالمنافع  تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها  تمديد انابيب النفط والغاز  إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه  إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها  إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات  إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات  إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار  أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق  إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه  إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية  إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات  إصلاح وصيانة محطات الطاقة الكهربائية والمحولات  إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار  أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى  إنشاء محطات التكرير والبتروكيماويات والمصافي  إنشاء ارصفة الموانيء والإنشاءات البحرية  إنشاء المواني والمراسى السياحية (المارينا)  إنشاء السدود  تنظيف الممرات المائية  إنشاء كاسرات الأمواج والحماية للأرصفة  إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي  إصلاح وصيانة السدود  إصلاح وصيانة أرصفة الموانئ والمرافق البحرية  أنشطة التشييد المتخصصة  الهدم  هدم وإزالة المباني وغيرها  أنشطة أخرى من الهدم  تحضير الموقع  اعداد وتجهيز المواقع من الحفر والتسوية  صب القواعد والاساسات  سحب المياه الجوفية وتجفيف المواقع  التفجير والنسف  أنشطة أخرى لتحضير الموقع  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات التلفزيون والستلايت  تركيب وتمديد شبكات الكمبيوتر والاتصالات  أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات  تركيب انظمة الاضاءة  تركيب انظمة انذار الحريق  تركيب انظمة انذار السرقة  أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة  تركيب انظمة اضاءة الطرق ومهابط الطائرات  تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين  التركيبات الكهربائية الأخرى  تركيب وصيانة أجهزة ومعدات الإنذار من الحريق  تركيب انظمة انذار السرقة  تركيب وصيانة الأجهزة الأمنية  تركيب وصيانة أجهزة السلامة المرورية  أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة  أعمال السباكة والتدفئة وتكييف الهواء  تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها  تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها  تركيب الادوات الصحية وصيانتها واصلاحها  تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها  تمديدات انابيب الغاز وصيانتها واصلاحها  تمديدات انابيب البخار وصيانتها واصلاحها  تمديدات انابيب الحريق وصيانتها واصلاحها  تمديدات انابيب الري وصيانتها واصلاحها  تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح  تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها  تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح  تركيبات إنشائية أخرى  تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية  تركيب وإصلاح وصيانة الابواب الاوتوماتيكية  تركيب وإصلاح وصيانة مانعه الصواعق  تركيب وإصلاح وصيانة انظمة التنظيف المركزية  تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات  تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا  تركيب وصيانة المصاعد  تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية  تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية  تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية  تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها  تركيب وصيانة أجهزة ومعدات الإطفاء  تركيب وصيانة أنظمة الرفوف والتخزين  اكمال المباني وتشطيبها  تشطيب المباني  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق  تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب  تركيب السيراميك والكاشي  تركيب الرخام  تركيب الحجر  تركيب القرميد  أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد  تغطية الارضيات خشب الباركيه  تغطية الارضيات بالمطاط والمشمع والبلاستيك  تغطية ارضيات بانواع اخرى  أعمال وتركيب الديكورات  أعمال التزيين ولصق ورق الحائط  تركيب الديكورات والتزيين وورق الحائط الأخرى  أعمال التجصيص والمساح  أعمال الدهانات والطلاء للمباني الداخلية والخارجية  أعمال الدهانات والطلاء لهياكل الهندسة الحديثة  أنشطة أخرى من أعمال التجصيص والدهانات والطلاء  تركيب الزجاج والمرايا للمباني  تركيب زجاج واجهات الابراج  أنشطة أخرى من تركيب الزجاج والمرايا  تنظيف المباني الجديدة بعد الإنشاء  التركيبات الداخلية للمحلات والمباني المتحركة والقوارب  تركيب الأثاث  أعمال أخرى لإنهاء المباني وتجهيزها  أنشطة التشييد المتخصصة الأخرى  أعمال تركيب الطابوق  أعمال تركيب الصخور  أعمال أخرى من أعمال تركيب الطابوق والصخور  أعمال تركيب السقالات  إنشاء حمامات السباحة  تنظيف المباني بالبخار وتسخين الرمل  تأجير معدات التشييد والبناء مع مشغل  أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنش</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  الهندسة المدنية  إنشاء الطرق وخطوط السكك الحديدية  إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق  إنشاء واصلاح الجسور والانفاق  إنشاء واصلاح خطوط السكك الحديدية  أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر  إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق  إصلاح</t>
-  </si>
-  <si>
-    <t>أنشطة خدمات دعم التعدين  أنشطة الدعم لاستخراج النفط والغاز الطبيعي  حفر آبار النفط  حفر آبار الغاز الطبيعي  الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح  الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح  أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي  تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  الهندسة المدنية  تشييد المشاريع الخاصة بالمنافع  تمديد انابيب النفط والغاز  أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى  إنشاء محطات التكرير والبتروكيماويات والمصافي</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  الهندسة المدنية  إنشاء الطرق وخطوط السكك الحديدية  إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق  أنشطة التشييد المتخصصة  التركيبات الكهربائية  تمديد اسلاك الاتصالات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات الكمبيوتر والاتصالات  أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات  أعمال السباكة والتدفئة وتكييف الهواء  تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها  أنشطة التشييد المتخصصة الأخرى  أعمال تركيب السقالات  أنشطة تقديم الخدمات للمباني وتجميل المواقع  أنشطة متكاملة لدعم المرافق  أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق</t>
-  </si>
-  <si>
-    <t>أنشطة التشييد المتخصصة  اكمال المباني وتشطيبها  تنظيف المباني الجديدة بعد الإنشاء  أنشطة تقديم الخدمات للمباني وتجميل المواقع  أنشطة متكاملة لدعم المرافق  أنشطة خدمات التنظيف العام للمباني  أنشطة خدمات التنظيف للمباني الحكومية  التنظيف العام للمباني  التنظيف العام للمباني  أنشطة تنظيف المباني والتنظيف الصناعي الأخرى  أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  ترميمات المباني السكنية والغير سكنية  الهندسة المدنية  تشييد المشاريع الخاصة بالمنافع  تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها  أنشطة التشييد المتخصصة  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  أعمال السباكة والتدفئة وتكييف الهواء  تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  الهندسة المدنية  إنشاء الطرق وخطوط السكك الحديدية  إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق  إنشاء واصلاح الجسور والانفاق  إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق  إصلاح وصيانة الجسور والأنفاق  تشييد المشاريع الخاصة بالمنافع  إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات  إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات  إصلاح وصيانة محطات الطاقة الكهربائية والمحولات  أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى  إنشاء السدود  إصلاح وصيانة السدود  أنشطة التشييد المتخصصة  الهدم  هدم وإزالة المباني وغيرها  أنشطة أخرى من الهدم  تحضير الموقع  اعداد وتجهيز المواقع من الحفر والتسوية  صب القواعد والاساسات  سحب المياه الجوفية وتجفيف المواقع  التفجير والنسف  أنشطة أخرى لتحضير الموقع  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات التلفزيون والستلايت  تركيب وتمديد شبكات الكمبيوتر والاتصالات  أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات  تركيب انظمة الاضاءة  تركيب انظمة انذار الحريق  تركيب انظمة انذار السرقة  أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة  تركيب انظمة اضاءة الطرق ومهابط الطائرات  تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين  التركيبات الكهربائية الأخرى  تركيب وصيانة أجهزة ومعدات الإنذار من الحريق  تركيب انظمة انذار السرقة  تركيب وصيانة الأجهزة الأمنية  تركيب وصيانة أجهزة السلامة المرورية  أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة  أعمال السباكة والتدفئة وتكييف الهواء  تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها  تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها  تركيب الادوات الصحية وصيانتها واصلاحها  تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها  تمديدات انابيب الغاز وصيانتها واصلاحها  تمديدات انابيب البخار وصيانتها واصلاحها  تمديدات انابيب الحريق وصيانتها واصلاحها  تمديدات انابيب الري وصيانتها واصلاحها  تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح  تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها  تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح  تركيبات إنشائية أخرى  تركيب وإصلاح وصي</t>
-  </si>
-  <si>
-    <t>أنشطة التشييد المتخصصة  التركيبات الكهربائية  تركيب انظمة الاضاءة  تركيب انظمة انذار الحريق  أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  أنشطة التشييد المتخصصة  الهدم  هدم وإزالة المباني وغيرها  أنشطة أخرى من الهدم  تحضير الموقع  اعداد وتجهيز المواقع من الحفر والتسوية  صب القواعد والاساسات  سحب المياه الجوفية وتجفيف المواقع  التفجير والنسف  أنشطة أخرى لتحضير الموقع  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات التلفزيون والستلايت  تركيب وتمديد شبكات الكمبيوتر والاتصالات  أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات  تركيب انظمة الاضاءة  تركيب انظمة انذار الحريق  تركيب انظمة انذار السرقة  أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة  تركيب انظمة اضاءة الطرق ومهابط الطائرات  تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين  التركيبات الكهربائية الأخرى  تركيب وصيانة أجهزة ومعدات الإنذار من الحريق  تركيب انظمة انذار السرقة  تركيب وصيانة الأجهزة الأمنية  تركيب وصيانة أ</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  أنشطة التشييد المتخصصة  اكمال المباني وتشطيبها  تشطيب المباني  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق  تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب  تركيب السيراميك والكاشي  تركيب الرخام  تركيب الحجر  أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد  أعمال التجصيص والمساح  أعمال الدهانات والطلاء للمباني الداخلية والخارجية</t>
-  </si>
-  <si>
-    <t>تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  الهندسة المدنية  تشييد المشاريع الخاصة بالمنافع  تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها  إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه  إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات  إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات  إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار  إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه  إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية  إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات  إصلاح وصيانة محطات الطاقة الكهربائية والمحولات  أنشطة التشييد المتخصصة  الهدم  هدم وإزالة المباني وغيرها  أنشطة أخرى من الهدم  تحضير الموقع  اعداد وتجهيز المواقع من الحفر والتسوية  صب القواعد والاساسات  سحب المياه الجوفية وتجفيف المواقع  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  تركيب وتمديد شبكات التلفزيون والستلايت  تركيب وتمديد شبكات الكمبيوتر والاتصالات  تركيب انظمة الاضاءة  تركيبات إنشائية أخرى  تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات  تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية  اكمال المباني وتشطيبها  تشطيب المباني  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق  تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب  تركيب السيراميك والكاشي  تركيب الرخام  تركيب الحجر  تركيب القرميد  أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد  تغطية الارضيات خشب الباركيه  تغطية الارضيات بالمطاط والمشمع والبلاستيك  تغطية ارضيات بانواع اخرى  أعمال التجصيص والمساح  أعمال الدهانات والطلاء للمباني الداخلية والخارجية  أعمال الدهانات والطلاء لهياكل الهندسة الحديثة  أنشطة أخرى من أعمال التجصيص والدهانات والطلاء</t>
+    <t>عنوان
+الوليد ب...</t>
+  </si>
+  <si>
+    <t>عنوان
+3423 سيل...</t>
+  </si>
+  <si>
+    <t>عنوان
+الدور ال...</t>
+  </si>
+  <si>
+    <t>عنوان
+الرياض ش...</t>
+  </si>
+  <si>
+    <t>عنوان
+4556 طري...</t>
+  </si>
+  <si>
+    <t>عنوان
+منطقة جا...</t>
+  </si>
+  <si>
+    <t>عنوان
+7827 عرف...</t>
+  </si>
+  <si>
+    <t>عنوان
+طريق الا...</t>
+  </si>
+  <si>
+    <t>عنوان
+الدمام /...</t>
+  </si>
+  <si>
+    <t>عنوان
+مبنى رقم...</t>
+  </si>
+  <si>
+    <t>عنوان
+الغيثي ب...</t>
+  </si>
+  <si>
+    <t>الرخص الانشائي...</t>
+  </si>
+  <si>
+    <t>تسوير مواقع ال...</t>
+  </si>
+  <si>
+    <t>مراكز الخدمة ,...</t>
+  </si>
+  <si>
+    <t>مقاولات عامه -...</t>
+  </si>
+  <si>
+    <t>نحن نعمل لقطاع...</t>
+  </si>
+  <si>
+    <t>الدور الأول
+٧٧...</t>
+  </si>
+  <si>
+    <t>تأسست مجموعة ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة مساوي مع...</t>
+  </si>
+  <si>
+    <t>7827 عرفان الج...</t>
+  </si>
+  <si>
+    <t>تعتبر شركة آلا...</t>
+  </si>
+  <si>
+    <t>تصميم وتوريد و...</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+...</t>
+  </si>
+  <si>
+    <t>الهندسة المدني...</t>
+  </si>
+  <si>
+    <t>أنشطة خدمات دع...</t>
+  </si>
+  <si>
+    <t>أنشطة التشييد ...</t>
   </si>
   <si>
     <t>Company Name</t>
@@ -635,88 +612,85 @@
     <t>Details</t>
   </si>
   <si>
-    <t>شركة المنار العربية للتجارة والمقاولات المحدودة</t>
-  </si>
-  <si>
-    <t>الشركه السعوديه لخدمات الأعمال الكهربائيه والميكانيكيه</t>
-  </si>
-  <si>
-    <t>شركة أبناء عبدالله حسين المطوع</t>
-  </si>
-  <si>
-    <t>شركة اليمامة للأعمال التجارية والمقاولات (مساهمة مقفلة)</t>
-  </si>
-  <si>
-    <t>شركة المشروعات الشرقية لأعمال المباني</t>
-  </si>
-  <si>
-    <t>مؤسسه الاعمار والانشاء للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة رمال البيضة للمقاولات</t>
-  </si>
-  <si>
-    <t>مجموعة الفارسي المطورة للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>شركة نزار نزار نقشبندي للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة عيد حسين التميمي للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>مؤسسة عبدالعزيز سعود ابوالسعود للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة الإبداع السريع لادوات ومواد السلامة</t>
-  </si>
-  <si>
-    <t>مؤسسة محمد عمر ولي للإنشاء والتعمير</t>
-  </si>
-  <si>
-    <t>شركة اكواا العربية للمياه</t>
-  </si>
-  <si>
-    <t>مؤسسة بيارق العصور للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة سلمى حميد الحجوري للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة سكنات الخليجية للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>مجموعة علي بن ردة الله الصاعدي وشركاه المحدودة</t>
-  </si>
-  <si>
-    <t>مؤسسة روافد الابتكار للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة تراث المشرق للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة الطريس السعوديه للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة درر الانشاءات للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة ايلاف المتحدة للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة العمل التقني للخدمات الصناعية</t>
-  </si>
-  <si>
-    <t>مؤسسة الرواق المكي للمقاولات</t>
-  </si>
-  <si>
-    <t>ناصر منيع الخليوي للمقاولات المعمارية</t>
-  </si>
-  <si>
-    <t>مؤسسة إنارة الأرض للمقاولات</t>
-  </si>
-  <si>
-    <t>اعمار التنفيذية لتقنية المعلومات</t>
+    <t>شركة المنار ال...</t>
+  </si>
+  <si>
+    <t>الشركه السعودي...</t>
+  </si>
+  <si>
+    <t>شركة أبناء عبد...</t>
+  </si>
+  <si>
+    <t>شركة اليمامة ل...</t>
+  </si>
+  <si>
+    <t>مؤسسه الاعمار ...</t>
+  </si>
+  <si>
+    <t>شركة رمال البي...</t>
+  </si>
+  <si>
+    <t>مجموعة الفارسي...</t>
+  </si>
+  <si>
+    <t>شركة نزار نزار...</t>
+  </si>
+  <si>
+    <t>مؤسسة عيد حسين...</t>
+  </si>
+  <si>
+    <t>مؤسسة عبدالعزي...</t>
+  </si>
+  <si>
+    <t>شركة الإبداع ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة محمد عمر...</t>
+  </si>
+  <si>
+    <t>شركة اكواا الع...</t>
+  </si>
+  <si>
+    <t>مؤسسة بيارق ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة سلمى حمي...</t>
+  </si>
+  <si>
+    <t>شركة سكنات الخ...</t>
+  </si>
+  <si>
+    <t>مجموعة علي بن ...</t>
+  </si>
+  <si>
+    <t>مؤسسة روافد ال...</t>
+  </si>
+  <si>
+    <t>شركة تراث المش...</t>
+  </si>
+  <si>
+    <t>شركة الطريس ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة درر الان...</t>
+  </si>
+  <si>
+    <t>شركة ايلاف الم...</t>
+  </si>
+  <si>
+    <t>شركة العمل الت...</t>
+  </si>
+  <si>
+    <t>مؤسسة الرواق ا...</t>
+  </si>
+  <si>
+    <t>ناصر منيع الخل...</t>
+  </si>
+  <si>
+    <t>مؤسسة إنارة ال...</t>
+  </si>
+  <si>
+    <t>اعمار التنفيذي...</t>
   </si>
   <si>
     <t>+966535546688</t>
@@ -803,88 +777,88 @@
     <t>+966555400484</t>
   </si>
   <si>
-    <t>malsubaie@manararabian.com</t>
-  </si>
-  <si>
-    <t>gmoffice@ssem.com.sa</t>
-  </si>
-  <si>
-    <t>ahmutawa@almutawa.com.sa</t>
-  </si>
-  <si>
-    <t>info@yc.com.sa</t>
-  </si>
-  <si>
-    <t>sec3@alaligroup.com</t>
-  </si>
-  <si>
-    <t>gr@geer.com.sa</t>
-  </si>
-  <si>
-    <t>rimalalbaydah@gmail.com</t>
-  </si>
-  <si>
-    <t>a.rahman@fdg.com.sa</t>
-  </si>
-  <si>
-    <t>nizar@nizar-est.com</t>
-  </si>
-  <si>
-    <t>eid@eht.com.sa</t>
-  </si>
-  <si>
-    <t>fouad1397@gmail.com</t>
-  </si>
-  <si>
-    <t>z1@alebdaalsarea.com</t>
-  </si>
-  <si>
-    <t>baitalarab_sa@yahoo.com</t>
-  </si>
-  <si>
-    <t>ceo@aqua-arabia.com</t>
-  </si>
-  <si>
-    <t>hasan3zmi@hotmail.com</t>
-  </si>
-  <si>
-    <t>tamer742742@gmail.com</t>
-  </si>
-  <si>
-    <t>arafat.5080@hotmail.com</t>
-  </si>
-  <si>
-    <t>walidsalah3755@gmail.com</t>
-  </si>
-  <si>
-    <t>bani@ebtikarsa.com</t>
-  </si>
-  <si>
-    <t>turath.almashrq@gmail.com</t>
-  </si>
-  <si>
-    <t>m.amin@al-terais.com</t>
-  </si>
-  <si>
-    <t>dorar_88@hotmail.com</t>
-  </si>
-  <si>
-    <t>a_ellithy@eilafeunited.com</t>
-  </si>
-  <si>
-    <t>mustafa@tchworx.com</t>
-  </si>
-  <si>
-    <t>alraqi008@hotmail.com</t>
-  </si>
-  <si>
-    <t>nasiralkhaliwy@yahoo.com</t>
-  </si>
-  <si>
-    <t>h.a.s.28.8.2018@gmail.com</t>
-  </si>
-  <si>
-    <t>hwede@emaar-ec.com</t>
+    <t>malsubaie@mana...</t>
+  </si>
+  <si>
+    <t>gmoffice@ssem....</t>
+  </si>
+  <si>
+    <t>ahmutawa@almut...</t>
+  </si>
+  <si>
+    <t>info@yc.com.sa...</t>
+  </si>
+  <si>
+    <t>sec3@alaligrou...</t>
+  </si>
+  <si>
+    <t>gr@geer.com.sa...</t>
+  </si>
+  <si>
+    <t>rimalalbaydah@...</t>
+  </si>
+  <si>
+    <t>a.rahman@fdg.c...</t>
+  </si>
+  <si>
+    <t>nizar@nizar-es...</t>
+  </si>
+  <si>
+    <t>eid@eht.com.sa...</t>
+  </si>
+  <si>
+    <t>fouad1397@gmai...</t>
+  </si>
+  <si>
+    <t>z1@alebdaalsar...</t>
+  </si>
+  <si>
+    <t>baitalarab_sa@...</t>
+  </si>
+  <si>
+    <t>ceo@aqua-arabi...</t>
+  </si>
+  <si>
+    <t>hasan3zmi@hotm...</t>
+  </si>
+  <si>
+    <t>tamer742742@gm...</t>
+  </si>
+  <si>
+    <t>arafat.5080@ho...</t>
+  </si>
+  <si>
+    <t>walidsalah3755...</t>
+  </si>
+  <si>
+    <t>bani@ebtikarsa...</t>
+  </si>
+  <si>
+    <t>turath.almashr...</t>
+  </si>
+  <si>
+    <t>m.amin@al-tera...</t>
+  </si>
+  <si>
+    <t>dorar_88@hotma...</t>
+  </si>
+  <si>
+    <t>a_ellithy@eila...</t>
+  </si>
+  <si>
+    <t>mustafa@tchwor...</t>
+  </si>
+  <si>
+    <t>alraqi008@hotm...</t>
+  </si>
+  <si>
+    <t>nasiralkhaliwy...</t>
+  </si>
+  <si>
+    <t>h.a.s.28.8.201...</t>
+  </si>
+  <si>
+    <t>hwede@emaar-ec...</t>
   </si>
   <si>
     <t xml:space="preserve"> 10000040</t>
@@ -902,73 +876,73 @@
     <t xml:space="preserve"> 10000106</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1000020000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000047</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000048</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000052</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000063</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000065</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000066</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000072</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000074</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000075</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000081</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000121</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000125</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000127</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000128</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000136</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000137</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000138</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000020000142</t>
+    <t xml:space="preserve"> 1000020000009...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000010...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000021...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000023...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000047...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000048...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000052...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000063...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000065...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000066...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000072...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000074...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000075...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000081...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000104...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000121...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000125...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000127...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000128...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000136...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000137...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000138...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000020000142...</t>
   </si>
   <si>
     <t xml:space="preserve"> مقاول سعودي</t>
@@ -986,7 +960,7 @@
     <t xml:space="preserve"> القصيم</t>
   </si>
   <si>
-    <t xml:space="preserve"> الحدود الشمالية</t>
+    <t xml:space="preserve"> الحدود الشمال...</t>
   </si>
   <si>
     <t xml:space="preserve"> الدمام</t>
@@ -1016,34 +990,34 @@
     <t xml:space="preserve"> عرعر</t>
   </si>
   <si>
-    <t xml:space="preserve"> الدمام - شارع الملك خالد ص.ب.10257 الدمام 31433-المملكة العربية السعودية تلفون:00966138417007 فاكس: 00966138423881</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> برج الراشد / طريق الملك سعود / مقابل مديرية السجون</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> حي عبدالله فؤاد - مقابل مكتبية جرير</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> المنطقة الشرقية - الإحساء - الهفوف - حي الفيصلية - شارع الملك فهد</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> جدة - حي الرويس</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> حي الروضة شارع الأمير محمد بن عبدالعزيز مبنى الفيصلية الدور الأول مكتب 104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> بجانب البنك الفرنسي حي اليرموك</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> المقر الرئيسي , طريق الملك سعود حي المربع مقبابل شركة الكهرباء شركة المياه سابقاً</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> البكيرية-طريق الملك فيصل-الصناعية الجديده</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الرياض حي المروج طريق الملك عبدالعزيز بجانب البنك الأهلي</t>
+    <t xml:space="preserve"> الدمام - شارع...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> برج الراشد / ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> حي عبدالله فؤ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المنطقة الشرق...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> جدة - حي الرو...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> حي الروضة شار...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بجانب البنك ا...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المقر الرئيسي...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> البكيرية-طريق...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الرياض حي الم...</t>
   </si>
   <si>
     <t>كبيرة</t>
@@ -1073,73 +1047,66 @@
     <t xml:space="preserve"> 15</t>
   </si>
   <si>
-    <t xml:space="preserve">    شركة المنار العربية للتجارة والمقاولات المحدودة(ش.ذ.م.م)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    تأسست الشركة السعودية لخدمات الأعمال الكهربائية والميكانيكية المحدودة عام 1397ه وفي عام 1401ه تحولت إلى شركة وطنية بنسبة 100% ويديرها أعضاء مجلس إدارتها الشركاء: عبدالرحمن بن سعد الراشد (رئيساً للمجلس) وعضوية السيد عبدالله بن سعد الراشد، والمهندس المعماري راشد بن سعد الراشد والمهندس المدني صلاح بن راشد الراشد (رئيس مجلس إدارة البنك العربي الوطني)، وقد بدأت الشركة أعمالها منذ أكثر من 40 عاماً، في مجالات أعمال المياه والصرف الصحي والأعمال الكهربائية والأعمال الميكانيكية والمباني وكافة الأعمال المرتبطة بها، , وحصلت على شهادة تصنيف المقاولين بالدرجة الأولى في مجال الأعمال الكهربائية والميكانيكية وأعمال المياه والصرف الصحي والمباني وكذلك تم تصنيفها في الأعمال الصناعية والطرقات</t>
+    <t xml:space="preserve">  
+شركة المنار...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+تأسست الشرك...</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">    مقابل مكتبة جرير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    نحن متخصصون في أعمال المياه والصرف الصحي والاعمال الكهربائية والميكانيكية الإلكترونية والاعمال الصناعية - صيانة وتشغيل أعمال المياه والصرف الصحي والسدود والطرق والجسور والأنفاق والمباني والمجمعات التجارية والسكنية - صيانة ونظافة المدن والتخلص من النفايات - صيانة وونظافة وتشجير الحدائق والمنتزهات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    طريق الملك عبدالله - مركز الفارسي سنتر - بجوار البنك الاهلي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    شارع الأمير محمد بن عبدالعزيز غرب طريق المدينة حي الروضة مبنى الفيصلية مكتب 104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    بجانب البنك الفرنسي حي اليرموك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    البكيرية-طريق الملك فيصل-الصناعية الجديده</t>
-  </si>
-  <si>
-    <t>التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات التلفزيون والستلايت  تركيب وتمديد شبكات الكمبيوتر والاتصالات  تركيب انظمة الاضاءة  تركيب انظمة انذار الحريق  تركيب انظمة انذار السرقة  أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة  تركيب انظمة اضاءة الطرق ومهابط الطائرات  تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين  التركيبات الكهربائية الأخرى  أعمال السباكة والتدفئة وتكييف الهواء  تركيب الادوات الصحية وصيانتها واصلاحها  تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها  تمديدات انابيب الغاز وصيانتها واصلاحها  تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح  تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها  تركيبات إنشائية أخرى  تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية  تركيب وإصلاح وصيانة الابواب الاوتوماتيكية  تركيب وإصلاح وصيانة مانعه الصواعق  تركيب وإصلاح وصيانة انظمة التنظيف المركزية  تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات</t>
-  </si>
-  <si>
-    <t>1. تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  2. الهندسة المدنية  إنشاء الطرق وخطوط السكك الحديدية  إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق  تشييد المشاريع الخاصة بالمنافع  تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها  إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات  إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات  أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى  إنشاء السدود  3. أنشطة التشييد المتخصصة  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين  التركيبات الكهربائية الأخرى  أعمال السباكة والتدفئة وتكييف الهواء  تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها</t>
-  </si>
-  <si>
-    <t>1. الهندسة المدنية  تشييد المشاريع الخاصة بالمنافع  إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه  إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات  2. أنشطة التشييد المتخصصة  أعمال السباكة والتدفئة وتكييف الهواء  تمديدات انابيب الري وصيانتها واصلاحها  3. أنشطة تقديم الخدمات للمباني وتجميل المواقع  أنشطة متكاملة لدعم المرافق  أنشطة خدمات التنظيف العام للمباني  التنظيف العام للمباني  التنظيف العام للمباني  أنشطة تنظيف المباني والتنظيف الصناعي الأخرى  تنظيف خارجي للمباني  أنشطة تنظيف الآلات والمعدات الصناعية  أنشطة تنظيف الطرق  أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر  الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع  رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</t>
-  </si>
-  <si>
-    <t>أعمال السباكة والتدفئة وتكييف الهواء  تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها  تمديدات انابيب الغاز وصيانتها واصلاحها  تمديدات انابيب البخار وصيانتها واصلاحها  تمديدات انابيب الحريق وصيانتها واصلاحها  تمديدات انابيب الري وصيانتها واصلاحها  تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها  تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح  تركيبات إنشائية أخرى  تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية  تركيب وإصلاح وصيانة الابواب الاوتوماتيكية  تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا  5. أنشطة تقديم الخدمات للمباني وتجميل المواقع  أنشطة متكاملة لدعم المرافق  أنشطة خدمات التنظيف العام للمباني  أنشطة خدمات صيانة المباني  التنظيف العام للمباني  التنظيف العام للمباني  أنشطة تنظيف المباني والتنظيف الصناعي الأخرى  تنظيف خارجي للمباني  أنشطة تنظيف الناقلات  أنشطة تنظيف الآلات والمعدات الصناعية  أنشطة تنظيف الطرق  أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر  الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع  رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام  رعاية وصيانة منتزهات الطرق السريعة</t>
-  </si>
-  <si>
-    <t>الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  3. الهندسة المدنية  إنشاء الطرق وخطوط السكك الحديدية  إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق  إنشاء واصلاح الجسور والانفاق  تشييد المشاريع الخاصة بالمنافع  تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها  إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه  إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها  إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات  إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات  أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق  أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى  إنشاء السدود  تنظيف الممرات المائية  4. أنشطة التشييد المتخصصة  الهدم  هدم وإزالة المباني وغيرها  أنشطة أخرى من الهدم  تحضير الموقع  اعداد وتجهيز المواقع من الحفر والتسوية  صب القواعد والاساسات  سحب المياه الجوفية وتجفيف المواقع  التفجير والنسف  التركيبات الكهربائية  تمديد الاسلاك الكهربائية</t>
-  </si>
-  <si>
-    <t>الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  2. الهندسة المدنية  إنشاء الطرق وخطوط السكك الحديدية  إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق  إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق  أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى  تنظيف الممرات المائية  3. أنشطة التشييد المتخصصة  الهدم  هدم وإزالة المباني وغيرها  أنشطة أخرى من الهدم  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  أعمال السباكة والتدفئة وتكييف الهواء  تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها  تركيبات إنشائية أخرى  تركيب وإصلاح وصيانة الابواب الاوتوماتيكية  اكمال المباني وتشطيبها  تشطيب المباني  أعمال أخرى لإنهاء المباني وتجهيزها  4. أنشطة تقديم الخدمات للمباني وتجميل المواقع  أنشطة متكاملة لدعم المرافق  أنشطة خدمات صيانة المباني</t>
-  </si>
-  <si>
-    <t>أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد  تغطية الارضيات خشب الباركيه  تغطية الارضيات بالمطاط والمشمع والبلاستيك  تغطية ارضيات بانواع اخرى  أعمال وتركيب الديكورات  أعمال التزيين ولصق ورق الحائط  تركيب الديكورات والتزيين وورق الحائط الأخرى  أعمال التجصيص والمساح  أعمال الدهانات والطلاء للمباني الداخلية والخارجية  أعمال الدهانات والطلاء لهياكل الهندسة الحديثة  أنشطة أخرى من أعمال التجصيص والدهانات والطلاء  تركيب الزجاج والمرايا للمباني  تركيب زجاج واجهات الابراج  أنشطة أخرى من تركيب الزجاج والمرايا  تنظيف المباني الجديدة بعد الإنشاء  التركيبات الداخلية للمحلات والمباني المتحركة والقوارب  تركيب الأثاث  أعمال أخرى لإنهاء المباني وتجهيزها  أنشطة التشييد المتخصصة الأخرى  أعمال تركيب الطابوق  أعمال تركيب الصخور  أعمال أخرى من أعمال تركيب الطابوق والصخور  أعمال تركيب السقالات  إنشاء حمامات السباحة  تنظيف المباني بالبخار وتسخين الرمل  تأجير معدات التشييد والبناء مع مشغل  أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</t>
-  </si>
-  <si>
-    <t>تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق  تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب  تركيب السيراميك والكاشي  تركيب الرخام  تركيب الحجر  تركيب القرميد  أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد  تغطية الارضيات خشب الباركيه  تغطية الارضيات بالمطاط والمشمع والبلاستيك  تغطية ارضيات بانواع اخرى  أعمال وتركيب الديكورات  أعمال التزيين ولصق ورق الحائط  تركيب الديكورات والتزيين وورق الحائط الأخرى  أعمال التجصيص والمساح  أعمال الدهانات والطلاء للمباني الداخلية والخارجية  أعمال الدهانات والطلاء لهياكل الهندسة الحديثة  أنشطة أخرى من أعمال التجصيص والدهانات والطلاء  تركيب الزجاج والمرايا للمباني  تركيب زجاج واجهات الابراج  أنشطة أخرى من تركيب الزجاج والمرايا  تنظيف المباني الجديدة بعد الإنشاء  التركيبات الداخلية للمحلات والمباني المتحركة والقوارب  تركيب الأثاث  أعمال أخرى لإنهاء المباني وتجهيزها  3. أنشطة تقديم الخدمات للمباني وتجميل المواقع  أنشطة متكاملة لدعم المرافق  أنشطة خدمات صيانة المباني</t>
-  </si>
-  <si>
-    <t>1. أنشطة التشييد المتخصصة  التركيبات الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات التلفزيون والستلايت  تركيب وتمديد شبكات الكمبيوتر والاتصالات  أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات  تركيب انظمة انذار الحريق  تركيب انظمة انذار السرقة  أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة  تركيب وصيانة الأجهزة الأمنية  تركيب وصيانة أجهزة السلامة المرورية  أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة  تركيبات إنشائية أخرى  تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية  تركيب وإصلاح وصيانة مانعه الصواعق  تركيب وصيانة المصاعد  تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية</t>
-  </si>
-  <si>
-    <t>1. أنشطة التشييد المتخصصة  التركيبات الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات التلفزيون والستلايت  تركيب وتمديد شبكات الكمبيوتر والاتصالات  أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات  تركيب انظمة انذار الحريق  تركيب انظمة انذار السرقة  أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة  تركيب وصيانة الأجهزة الأمنية  تركيب وصيانة أجهزة السلامة المرورية  أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة  تركيبات إن</t>
-  </si>
-  <si>
-    <t>أنشطة خدمات صيانة المباني  أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق  أنشطة خدمات التنظيف للمباني الحكومية  أنشطة خدمات البريد الخاصة بايصال المعاملات  التنظيف العام للمباني  التنظيف العام للمباني  أنشطة تنظيف المباني والتنظيف الصناعي الأخرى  تنظيف خارجي للمباني  تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها  تنظيف وصيانة برك السباحة  أنشطة التطهير وإبادة الحشرات والقوارض  أنشطة تنظيف الناقلات  أنشطة تنظيف الآلات والمعدات الصناعية  أنشطة تنظيف الطرق  أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر  أنشطة التطهير والتبخير لإبادة الحشرات والقوارض  الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع  رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام  رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها  رعاية وصيانة منتزهات الطرق السريعة  رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف  رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة )  رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر  رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق  أنشطة خدمات تصميم المناظر الطبيعية  أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</t>
-  </si>
-  <si>
-    <t>1. تشييد المباني  تشييد المباني  الإنشاءات العامة للمباني السكنية  الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )  الإنشاءات العامة للمباني الغير السكنية المطارات  الإنشاءات العامة للمباني الغير السكنية الحديدية  الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  2. أنشطة التشييد المتخصصة  اكمال المباني وتشطيبها  تشطيب المباني</t>
-  </si>
-  <si>
-    <t>الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق  إنشاءات المباني الجاهزة في المواقع  ترميمات المباني السكنية والغير سكنية  2. الهندسة المدنية  إنشاء الطرق وخطوط السكك الحديدية  إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق  إنشاء واصلاح الجسور والانفاق  إنشاء واصلاح خطوط السكك الحديدية  أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر  إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق  إصلاح وصيانة الجسور والأنفاق  إصلاح وصيانة خطوط السكك الحديدية  3. أنشطة التشييد المتخصصة  تحضير الموقع  اعداد وتجهيز المواقع من الحفر والتسوية  صب القواعد والاساسات  سحب المياه الجوفية وتجفيف المواقع  التفجير والنسف  أنشطة أخرى لتحضير الموقع  التركيبات الكهربائية  تمديد الاسلاك الكهربائية  تمديد اسلاك الاتصالات  تمديدات الشبكات  أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات  تركيب وتمديد شبكات التلفزيون والستلايت  تركيب وتمديد شبكات الكمبيوتر والاتصالات  أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات</t>
-  </si>
-  <si>
-    <t>تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية  تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق  تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب  تركيب السيراميك والكاشي  تركيب الرخام  تركيب الحجر  تركيب القرميد  أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد  تغطية الارضيات خشب الباركيه  تغطية الارضيات بالمطاط والمشمع والبلاستيك  تغطية ارضيات بانواع اخرى  أعمال وتركيب الديكورات  أعمال التزيين ولصق ورق الحائط  تركيب الديكورات والتزيين وورق الحائط الأخرى  أعمال التجصيص والمساح  أعمال الدهانات والطلاء للمباني الداخلية والخارجية  أعمال الدهانات والطلاء لهياكل الهندسة الحديثة  أنشطة أخرى من أعمال التجصيص والدهانات والطلاء  تركيب الزجاج والمرايا للمباني  تركيب زجاج واجهات الابراج  أنشطة أخرى من تركيب الزجاج والمرايا  تنظيف المباني الجديدة بعد الإنشاء</t>
+    <t xml:space="preserve">  
+مقابل مكتبة...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+نحن متخصصون...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+طريق الملك ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+شارع الأمير...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+بجانب البنك...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+البكيرية-طر...</t>
+  </si>
+  <si>
+    <t>التركيبات الكه...</t>
+  </si>
+  <si>
+    <t>1. تشييد المبا...</t>
+  </si>
+  <si>
+    <t>1. الهندسة الم...</t>
+  </si>
+  <si>
+    <t>أعمال السباكة ...</t>
+  </si>
+  <si>
+    <t>الإنشاءات العا...</t>
+  </si>
+  <si>
+    <t>أنشطة أخرى من ...</t>
+  </si>
+  <si>
+    <t>تركيب الابواب ...</t>
+  </si>
+  <si>
+    <t>1. أنشطة التشي...</t>
+  </si>
+  <si>
+    <t>أنشطة خدمات صي...</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1555,7 @@
         <v>179</v>
       </c>
       <c r="N2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1629,7 +1596,7 @@
         <v>180</v>
       </c>
       <c r="N3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1673,7 +1640,7 @@
         <v>181</v>
       </c>
       <c r="N4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1711,10 +1678,10 @@
         <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1752,10 +1719,10 @@
         <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1796,10 +1763,10 @@
         <v>178</v>
       </c>
       <c r="M7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1834,7 +1801,7 @@
         <v>161</v>
       </c>
       <c r="N8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1872,10 +1839,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1948,7 +1915,7 @@
         <v>173</v>
       </c>
       <c r="N11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1980,7 +1947,7 @@
         <v>163</v>
       </c>
       <c r="N12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2018,10 +1985,10 @@
         <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N13" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2047,10 +2014,10 @@
         <v>132</v>
       </c>
       <c r="M14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N14" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2082,7 +2049,7 @@
         <v>156</v>
       </c>
       <c r="N15" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2233,7 +2200,7 @@
         <v>161</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2317,7 +2284,7 @@
         <v>141</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2514,10 +2481,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -2544,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
@@ -2552,1002 +2519,1002 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="L2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H3" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="K3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="L3" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="K4" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="L4" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="H5" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I5" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="K5" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="L5" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="H6" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="I6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" t="s">
         <v>343</v>
       </c>
-      <c r="J6" t="s">
-        <v>347</v>
-      </c>
-      <c r="K6" t="s">
-        <v>356</v>
-      </c>
       <c r="L6" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I7" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K7" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E8" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G8" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I8" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J8" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K8" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="J9" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K9" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="L9" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G10" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J10" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K10" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="L10" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F11" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="I11" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J11" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="K11" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" t="s">
         <v>354</v>
-      </c>
-      <c r="L11" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E12" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F12" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="J12" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K12" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G13" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="I13" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J13" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K13" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="L13" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E14" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F14" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J14" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K14" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="L14" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E15" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F15" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G15" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H15" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="I15" t="s">
+        <v>331</v>
+      </c>
+      <c r="J15" t="s">
+        <v>334</v>
+      </c>
+      <c r="K15" t="s">
         <v>344</v>
-      </c>
-      <c r="J15" t="s">
-        <v>347</v>
-      </c>
-      <c r="K15" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E16" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F16" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I16" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J16" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K16" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F17" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G17" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I17" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J17" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K17" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" t="s">
         <v>305</v>
       </c>
-      <c r="E18" t="s">
-        <v>318</v>
-      </c>
       <c r="I18" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J18" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K18" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G19" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H19" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="I19" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J19" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K19" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="L19" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F20" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G20" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="I20" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="J20" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K20" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="L20" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F21" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G21" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I21" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J21" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K21" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L21" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E22" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F22" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G22" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H22" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="I22" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J22" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K22" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="L22" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E23" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F23" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G23" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I23" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J23" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K23" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D24" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E24" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G24" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H24" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="I24" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J24" t="s">
+        <v>334</v>
+      </c>
+      <c r="K24" t="s">
         <v>347</v>
-      </c>
-      <c r="K24" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="E25" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G25" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I25" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J25" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K25" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="L25" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D26" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E26" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" t="s">
         <v>318</v>
       </c>
-      <c r="F26" t="s">
-        <v>319</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>331</v>
       </c>
-      <c r="I26" t="s">
-        <v>344</v>
-      </c>
       <c r="J26" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K26" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E27" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F27" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G27" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="I27" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J27" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K27" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D28" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E28" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F28" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G28" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="I28" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J28" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K28" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D29" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E29" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F29" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G29" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="I29" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J29" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K29" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D30" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E30" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F30" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G30" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H30" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="I30" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J30" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K30" t="s">
+        <v>341</v>
+      </c>
+      <c r="L30" t="s">
         <v>354</v>
-      </c>
-      <c r="L30" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/samples/2-Sheets-SA-عينة-شركات-مقاولات-preview.xlsx
+++ b/samples/2-Sheets-SA-عينة-شركات-مقاولات-preview.xlsx
@@ -512,48 +512,37 @@
     <t>القصيم</t>
   </si>
   <si>
-    <t>عنوان
-الوليد ب...</t>
-  </si>
-  <si>
-    <t>عنوان
-3423 سيل...</t>
-  </si>
-  <si>
-    <t>عنوان
-الدور ال...</t>
-  </si>
-  <si>
-    <t>عنوان
-الرياض ش...</t>
-  </si>
-  <si>
-    <t>عنوان
-4556 طري...</t>
-  </si>
-  <si>
-    <t>عنوان
-منطقة جا...</t>
-  </si>
-  <si>
-    <t>عنوان
-7827 عرف...</t>
-  </si>
-  <si>
-    <t>عنوان
-طريق الا...</t>
-  </si>
-  <si>
-    <t>عنوان
-الدمام /...</t>
-  </si>
-  <si>
-    <t>عنوان
-مبنى رقم...</t>
-  </si>
-  <si>
-    <t>عنوان
-الغيثي ب...</t>
+    <t>عنوان الوليد ب...</t>
+  </si>
+  <si>
+    <t>عنوان 3423 سيل...</t>
+  </si>
+  <si>
+    <t>عنوان الدور ال...</t>
+  </si>
+  <si>
+    <t>عنوان الرياض ش...</t>
+  </si>
+  <si>
+    <t>عنوان 4556 طري...</t>
+  </si>
+  <si>
+    <t>عنوان منطقة جا...</t>
+  </si>
+  <si>
+    <t>عنوان 7827 عرف...</t>
+  </si>
+  <si>
+    <t>عنوان طريق الا...</t>
+  </si>
+  <si>
+    <t>عنوان الدمام /...</t>
+  </si>
+  <si>
+    <t>عنوان مبنى رقم...</t>
+  </si>
+  <si>
+    <t>عنوان الغيثي ب...</t>
   </si>
   <si>
     <t>الرخص الانشائي...</t>
@@ -571,8 +560,7 @@
     <t>نحن نعمل لقطاع...</t>
   </si>
   <si>
-    <t>الدور الأول
-٧٧...</t>
+    <t>الدور الأول ٧٧...</t>
   </si>
   <si>
     <t>تأسست مجموعة ا...</t>
@@ -590,8 +578,7 @@
     <t>تصميم وتوريد و...</t>
   </si>
   <si>
-    <t>تشييد المباني
-...</t>
+    <t>تشييد المباني ...</t>
   </si>
   <si>
     <t>الهندسة المدني...</t>
@@ -1047,39 +1034,31 @@
     <t xml:space="preserve"> 15</t>
   </si>
   <si>
-    <t xml:space="preserve">  
-شركة المنار...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
-تأسست الشرك...</t>
+    <t xml:space="preserve">   شركة المنار...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   تأسست الشرك...</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">  
-مقابل مكتبة...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
-نحن متخصصون...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
-طريق الملك ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
-شارع الأمير...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
-بجانب البنك...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
-البكيرية-طر...</t>
+    <t xml:space="preserve">   مقابل مكتبة...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   نحن متخصصون...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   طريق الملك ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   شارع الأمير...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   بجانب البنك...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   البكيرية-طر...</t>
   </si>
   <si>
     <t>التركيبات الكه...</t>
